--- a/tut05/output/0501ME01.xlsx
+++ b/tut05/output/0501ME01.xlsx
@@ -553,19 +553,19 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>8.295454545454545</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>8.468085106382979</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>7.142857142857143</v>
+        <v>7.14</v>
       </c>
       <c r="F6" t="n">
-        <v>7.130434782608695</v>
+        <v>7.13</v>
       </c>
       <c r="G6" t="n">
-        <v>8.260869565217391</v>
+        <v>8.26</v>
       </c>
       <c r="H6" t="n">
         <v>8.4</v>
@@ -615,25 +615,25 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>8.666666666666666</v>
+        <v>8.67</v>
       </c>
       <c r="D8" t="n">
         <v>8.6</v>
       </c>
       <c r="E8" t="n">
-        <v>8.222222222222221</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.008510638297873</v>
+        <v>8.01</v>
       </c>
       <c r="G8" t="n">
-        <v>8.04982206405694</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>8.093457943925234</v>
+        <v>8.09</v>
       </c>
       <c r="I8" t="n">
-        <v>8.044321329639889</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
   </sheetData>
